--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Sampling method.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Sampling method.xlsx
@@ -26,24 +26,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Individual/single</t>
-  </si>
-  <si>
-    <t>N001A</t>
-  </si>
-  <si>
-    <t>Pooled/batch</t>
-  </si>
-  <si>
-    <t>N002A</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>N008A</t>
-  </si>
-  <si>
     <t>According to 97/747/EC</t>
   </si>
   <si>
@@ -53,13 +35,22 @@
     <t>Directive 97/747/EC - Fixing the levels and frequencies of sampling provided for by Council Directive 96/23/EC for the monitoring of certain substances and residues thereof in certain animal products</t>
   </si>
   <si>
-    <t>According to Reg 333/2007</t>
-  </si>
-  <si>
-    <t>N011A</t>
-  </si>
-  <si>
-    <t>Commission Regulation (EC) No 333/2007 laying down the methods of sampling and analysis for the official control of the levels of lead, cadmium, mercury, inorganic tin, 3-MCPD and benzo(a)pyrene in foodstuffs</t>
+    <t>According to Dir. 2002/63/EC</t>
+  </si>
+  <si>
+    <t>N009A</t>
+  </si>
+  <si>
+    <t>Directive 2002/63/EC - Community methods of sampling for the official control of pesticide residues</t>
+  </si>
+  <si>
+    <t>According to Reg 152/2009</t>
+  </si>
+  <si>
+    <t>N014A</t>
+  </si>
+  <si>
+    <t>Commission Regulation (EC) No 152/2009 of 27 January 2009 laying down the methods of sampling and analysis for the official control of feed.</t>
   </si>
   <si>
     <t>According to Reg 1882/2006</t>
@@ -74,6 +65,24 @@
 certain foodstuffs</t>
   </si>
   <si>
+    <t>According to Reg 1883/2006</t>
+  </si>
+  <si>
+    <t>N015A</t>
+  </si>
+  <si>
+    <t>Commission Regulation (EC) No 1883/2006 of 19 December 2006 laying down methods of sampling and analysis for the official control of levels of dioxins and dioxin-like PCBs in certain foodstuffs</t>
+  </si>
+  <si>
+    <t>According to Reg 333/2007</t>
+  </si>
+  <si>
+    <t>N011A</t>
+  </si>
+  <si>
+    <t>Commission Regulation (EC) No 333/2007 laying down the methods of sampling and analysis for the official control of the levels of lead, cadmium, mercury, inorganic tin, 3-MCPD and benzo(a)pyrene in foodstuffs</t>
+  </si>
+  <si>
     <t>According to Reg 401/2006</t>
   </si>
   <si>
@@ -83,22 +92,22 @@
     <t>Commission Regulation (EC) No 401/2006 of 23 February 2006 laying down the methods of sampling and analysis for the official control of the levels of mycotoxins in foodstuffs.</t>
   </si>
   <si>
-    <t>According to Reg 152/2009</t>
-  </si>
-  <si>
-    <t>N014A</t>
-  </si>
-  <si>
-    <t>Commission Regulation (EC) No 152/2009 of 27 January 2009 laying down the methods of sampling and analysis for the official control of feed.</t>
-  </si>
-  <si>
-    <t>According to Reg 1883/2006</t>
-  </si>
-  <si>
-    <t>N015A</t>
-  </si>
-  <si>
-    <t>Commission Regulation (EC) No 1883/2006 of 19 December 2006 laying down methods of sampling and analysis for the official control of levels of dioxins and dioxin-like PCBs in certain foodstuffs</t>
+    <t>HACCP and owns check</t>
+  </si>
+  <si>
+    <t>N019A</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>N030A</t>
+  </si>
+  <si>
+    <t>Individual/single</t>
+  </si>
+  <si>
+    <t>N001A</t>
   </si>
   <si>
     <t>Industry sampling</t>
@@ -107,34 +116,25 @@
     <t>N016A</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>N020A</t>
+  </si>
+  <si>
+    <t>Official and industry sampling</t>
+  </si>
+  <si>
+    <t>N018A</t>
+  </si>
+  <si>
     <t>Official sampling</t>
   </si>
   <si>
     <t>N017A</t>
   </si>
   <si>
-    <t>Official and industry sampling</t>
-  </si>
-  <si>
-    <t>N018A</t>
-  </si>
-  <si>
-    <t>HACCP and owns check</t>
-  </si>
-  <si>
-    <t>N019A</t>
-  </si>
-  <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>N020A</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>N030A</t>
+    <t>Other</t>
   </si>
   <si>
     <t>Pooled</t>
@@ -143,16 +143,16 @@
     <t>N031A</t>
   </si>
   <si>
-    <t>According to Dir. 2002/63/EC</t>
-  </si>
-  <si>
-    <t>N009A</t>
-  </si>
-  <si>
-    <t>Directive 2002/63/EC - Community methods of sampling for the official control of pesticide residues</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t>Pooled/batch</t>
+  </si>
+  <si>
+    <t>N002A</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>N008A</t>
   </si>
 </sst>
 </file>
@@ -222,132 +222,135 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -368,13 +371,10 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
